--- a/Code/Results/Cases/Case_3_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003724293823386</v>
+        <v>1.032430907700835</v>
       </c>
       <c r="D2">
-        <v>1.025972653899938</v>
+        <v>1.042042578315674</v>
       </c>
       <c r="E2">
-        <v>1.020311960576163</v>
+        <v>1.04220355530835</v>
       </c>
       <c r="F2">
-        <v>1.032785795340382</v>
+        <v>1.053943330564776</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046628658681897</v>
+        <v>1.036131861345853</v>
       </c>
       <c r="J2">
-        <v>1.025794179662641</v>
+        <v>1.03756116767077</v>
       </c>
       <c r="K2">
-        <v>1.037081629055564</v>
+        <v>1.044820383522397</v>
       </c>
       <c r="L2">
-        <v>1.031495388421382</v>
+        <v>1.044980905521385</v>
       </c>
       <c r="M2">
-        <v>1.043806513660752</v>
+        <v>1.056687905001926</v>
       </c>
       <c r="N2">
-        <v>1.012443723552563</v>
+        <v>1.016489487714868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007659956194252</v>
+        <v>1.033280417173075</v>
       </c>
       <c r="D3">
-        <v>1.028889675908706</v>
+        <v>1.042693878745581</v>
       </c>
       <c r="E3">
-        <v>1.023499275436049</v>
+        <v>1.042940879729541</v>
       </c>
       <c r="F3">
-        <v>1.036171170421277</v>
+        <v>1.054722026554509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047475663255168</v>
+        <v>1.036258365324574</v>
       </c>
       <c r="J3">
-        <v>1.027943959081421</v>
+        <v>1.038053476917823</v>
       </c>
       <c r="K3">
-        <v>1.039165784796131</v>
+        <v>1.045282853160563</v>
       </c>
       <c r="L3">
-        <v>1.033840054806412</v>
+        <v>1.045529206319954</v>
       </c>
       <c r="M3">
-        <v>1.046361242958366</v>
+        <v>1.057279834166451</v>
       </c>
       <c r="N3">
-        <v>1.013170258969231</v>
+        <v>1.016654405083623</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010161398457579</v>
+        <v>1.033830886814595</v>
       </c>
       <c r="D4">
-        <v>1.030745880521179</v>
+        <v>1.043115817585385</v>
       </c>
       <c r="E4">
-        <v>1.025530679610726</v>
+        <v>1.043418997515129</v>
       </c>
       <c r="F4">
-        <v>1.038327552403534</v>
+        <v>1.055226821826519</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048004222730495</v>
+        <v>1.036339108716106</v>
       </c>
       <c r="J4">
-        <v>1.02930869847474</v>
+        <v>1.038372159457525</v>
       </c>
       <c r="K4">
-        <v>1.04048686804722</v>
+        <v>1.04558191930708</v>
       </c>
       <c r="L4">
-        <v>1.035330435357068</v>
+        <v>1.045884343985034</v>
       </c>
       <c r="M4">
-        <v>1.047984398838407</v>
+        <v>1.057663116884903</v>
       </c>
       <c r="N4">
-        <v>1.013631280798488</v>
+        <v>1.016761111502511</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011202519203264</v>
+        <v>1.034062489332263</v>
       </c>
       <c r="D5">
-        <v>1.031518926484933</v>
+        <v>1.043293319393685</v>
       </c>
       <c r="E5">
-        <v>1.026377471927212</v>
+        <v>1.043620240388966</v>
       </c>
       <c r="F5">
-        <v>1.03922613894582</v>
+        <v>1.055439257586884</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048221829268241</v>
+        <v>1.036372786033922</v>
       </c>
       <c r="J5">
-        <v>1.029876295677398</v>
+        <v>1.038506162304154</v>
       </c>
       <c r="K5">
-        <v>1.041035816694263</v>
+        <v>1.045707601543121</v>
       </c>
       <c r="L5">
-        <v>1.03595074664774</v>
+        <v>1.046033726229317</v>
       </c>
       <c r="M5">
-        <v>1.048659787285721</v>
+        <v>1.057824310672104</v>
       </c>
       <c r="N5">
-        <v>1.013822969250348</v>
+        <v>1.016805968911253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011376722530821</v>
+        <v>1.034101387217841</v>
       </c>
       <c r="D6">
-        <v>1.031648301517419</v>
+        <v>1.043323129634356</v>
       </c>
       <c r="E6">
-        <v>1.026519235291669</v>
+        <v>1.043654044096944</v>
       </c>
       <c r="F6">
-        <v>1.039376555440651</v>
+        <v>1.05547493931633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048258098621084</v>
+        <v>1.036378424914016</v>
       </c>
       <c r="J6">
-        <v>1.029971242261676</v>
+        <v>1.03852866361597</v>
       </c>
       <c r="K6">
-        <v>1.041127614496172</v>
+        <v>1.045728701452532</v>
       </c>
       <c r="L6">
-        <v>1.036054538135581</v>
+        <v>1.046058812951651</v>
       </c>
       <c r="M6">
-        <v>1.048772783334702</v>
+        <v>1.057851379388787</v>
       </c>
       <c r="N6">
-        <v>1.013855031445837</v>
+        <v>1.016813500537559</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010175350732122</v>
+        <v>1.033833980773661</v>
       </c>
       <c r="D7">
-        <v>1.030756238443511</v>
+        <v>1.043118188909161</v>
       </c>
       <c r="E7">
-        <v>1.025542022546041</v>
+        <v>1.043421685583181</v>
       </c>
       <c r="F7">
-        <v>1.038339590329375</v>
+        <v>1.055229659542381</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048007148382098</v>
+        <v>1.036339559764897</v>
       </c>
       <c r="J7">
-        <v>1.029316306651796</v>
+        <v>1.038373949899013</v>
       </c>
       <c r="K7">
-        <v>1.040494228215157</v>
+        <v>1.045583598858586</v>
       </c>
       <c r="L7">
-        <v>1.035338748309358</v>
+        <v>1.045886339716138</v>
       </c>
       <c r="M7">
-        <v>1.04799345063212</v>
+        <v>1.057665270523751</v>
       </c>
       <c r="N7">
-        <v>1.013633850431351</v>
+        <v>1.016761710897769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00506393283851</v>
+        <v>1.032717840832299</v>
       </c>
       <c r="D8">
-        <v>1.026965074670116</v>
+        <v>1.042262582855372</v>
       </c>
       <c r="E8">
-        <v>1.021395677906946</v>
+        <v>1.042452525275738</v>
       </c>
       <c r="F8">
-        <v>1.033937115762998</v>
+        <v>1.054206301354345</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046918990896571</v>
+        <v>1.036174844010602</v>
       </c>
       <c r="J8">
-        <v>1.026526254049899</v>
+        <v>1.037727519082762</v>
       </c>
       <c r="K8">
-        <v>1.03779176661654</v>
+        <v>1.044976714246408</v>
       </c>
       <c r="L8">
-        <v>1.032293425174318</v>
+        <v>1.045166132884579</v>
       </c>
       <c r="M8">
-        <v>1.044676201875791</v>
+        <v>1.056887894348424</v>
       </c>
       <c r="N8">
-        <v>1.012691174997343</v>
+        <v>1.016545223284965</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9956950910598111</v>
+        <v>1.030757110537028</v>
       </c>
       <c r="D9">
-        <v>1.020035808661774</v>
+        <v>1.040758839754112</v>
       </c>
       <c r="E9">
-        <v>1.013841910387619</v>
+        <v>1.040752635234142</v>
       </c>
       <c r="F9">
-        <v>1.025906955220423</v>
+        <v>1.052410204058751</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04484876379079</v>
+        <v>1.035876100150645</v>
       </c>
       <c r="J9">
-        <v>1.021400788010155</v>
+        <v>1.036589446423502</v>
       </c>
       <c r="K9">
-        <v>1.032811972403592</v>
+        <v>1.04390597133438</v>
       </c>
       <c r="L9">
-        <v>1.026714334342971</v>
+        <v>1.043899786852262</v>
       </c>
       <c r="M9">
-        <v>1.038593242530295</v>
+        <v>1.055520162777362</v>
       </c>
       <c r="N9">
-        <v>1.010957940541645</v>
+        <v>1.016163719400605</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9891827413648817</v>
+        <v>1.029454126901467</v>
       </c>
       <c r="D10">
-        <v>1.015235852648847</v>
+        <v>1.039759110612371</v>
       </c>
       <c r="E10">
-        <v>1.008625171995957</v>
+        <v>1.039624798336864</v>
       </c>
       <c r="F10">
-        <v>1.020354746402441</v>
+        <v>1.051217764249046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043360984028317</v>
+        <v>1.035671269701001</v>
       </c>
       <c r="J10">
-        <v>1.017832211790725</v>
+        <v>1.035831498194754</v>
       </c>
       <c r="K10">
-        <v>1.029335362131534</v>
+        <v>1.043191331874102</v>
       </c>
       <c r="L10">
-        <v>1.022840423200688</v>
+        <v>1.043057495729703</v>
       </c>
       <c r="M10">
-        <v>1.034365964249992</v>
+        <v>1.054609858345312</v>
       </c>
       <c r="N10">
-        <v>1.009750340763812</v>
+        <v>1.015909396361743</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9862941023071609</v>
+        <v>1.028890931052661</v>
       </c>
       <c r="D11">
-        <v>1.013111489051874</v>
+        <v>1.039326897208558</v>
       </c>
       <c r="E11">
-        <v>1.006319907522385</v>
+        <v>1.039137743254492</v>
       </c>
       <c r="F11">
-        <v>1.017899737044481</v>
+        <v>1.050702626927263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042690054395802</v>
+        <v>1.035581240536832</v>
       </c>
       <c r="J11">
-        <v>1.016248391402818</v>
+        <v>1.035503497119342</v>
       </c>
       <c r="K11">
-        <v>1.027790306570459</v>
+        <v>1.042881711061414</v>
       </c>
       <c r="L11">
-        <v>1.021123615754722</v>
+        <v>1.042693253517065</v>
       </c>
       <c r="M11">
-        <v>1.032491805092584</v>
+        <v>1.054216067692173</v>
       </c>
       <c r="N11">
-        <v>1.009214214663674</v>
+        <v>1.015799281014891</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9852103029022433</v>
+        <v>1.028681887700136</v>
       </c>
       <c r="D12">
-        <v>1.012315218985503</v>
+        <v>1.039166457421295</v>
       </c>
       <c r="E12">
-        <v>1.005456348906808</v>
+        <v>1.038957027473344</v>
       </c>
       <c r="F12">
-        <v>1.016979860938349</v>
+        <v>1.05051146395435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042436721103376</v>
+        <v>1.03554759965709</v>
       </c>
       <c r="J12">
-        <v>1.015654051679066</v>
+        <v>1.035381693659086</v>
       </c>
       <c r="K12">
-        <v>1.027210221941994</v>
+        <v>1.042766678955975</v>
       </c>
       <c r="L12">
-        <v>1.020479755191586</v>
+        <v>1.042558030712045</v>
       </c>
       <c r="M12">
-        <v>1.031788826856765</v>
+        <v>1.054069854715967</v>
       </c>
       <c r="N12">
-        <v>1.00901300802143</v>
+        <v>1.015758381012072</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.985443280025508</v>
+        <v>1.028726721272896</v>
       </c>
       <c r="D13">
-        <v>1.012486351557201</v>
+        <v>1.039200867584454</v>
       </c>
       <c r="E13">
-        <v>1.005641919835269</v>
+        <v>1.038995782622648</v>
       </c>
       <c r="F13">
-        <v>1.017177544000179</v>
+        <v>1.050552460792464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042491250188439</v>
+        <v>1.035554824780739</v>
       </c>
       <c r="J13">
-        <v>1.015781816795515</v>
+        <v>1.035407819501581</v>
       </c>
       <c r="K13">
-        <v>1.02733493555277</v>
+        <v>1.042791354847498</v>
       </c>
       <c r="L13">
-        <v>1.020618148401578</v>
+        <v>1.042587033135847</v>
       </c>
       <c r="M13">
-        <v>1.031939931636783</v>
+        <v>1.054101215224783</v>
       </c>
       <c r="N13">
-        <v>1.009056262305526</v>
+        <v>1.015767154114649</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.986204739048322</v>
+        <v>1.028873648339695</v>
       </c>
       <c r="D14">
-        <v>1.013045817421442</v>
+        <v>1.039313633082649</v>
       </c>
       <c r="E14">
-        <v>1.006248675889108</v>
+        <v>1.039122801177689</v>
       </c>
       <c r="F14">
-        <v>1.017823864509993</v>
+        <v>1.050686821611942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042669198477763</v>
+        <v>1.035578463847835</v>
       </c>
       <c r="J14">
-        <v>1.016199387703143</v>
+        <v>1.035493428172241</v>
       </c>
       <c r="K14">
-        <v>1.027742484046859</v>
+        <v>1.042872202976219</v>
       </c>
       <c r="L14">
-        <v>1.021070521208406</v>
+        <v>1.042682074460298</v>
       </c>
       <c r="M14">
-        <v>1.03243383764085</v>
+        <v>1.054203980480429</v>
       </c>
       <c r="N14">
-        <v>1.009197625464556</v>
+        <v>1.015795900169476</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9866724484710742</v>
+        <v>1.028964195235545</v>
       </c>
       <c r="D15">
-        <v>1.013389561746338</v>
+        <v>1.039383125403378</v>
       </c>
       <c r="E15">
-        <v>1.00662154391936</v>
+        <v>1.039201087819551</v>
       </c>
       <c r="F15">
-        <v>1.018221016662898</v>
+        <v>1.050769629923122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042778289023861</v>
+        <v>1.035593002171431</v>
       </c>
       <c r="J15">
-        <v>1.016455859420126</v>
+        <v>1.03554617861446</v>
       </c>
       <c r="K15">
-        <v>1.027992762020737</v>
+        <v>1.042922012888143</v>
       </c>
       <c r="L15">
-        <v>1.021348418941257</v>
+        <v>1.042740642272621</v>
       </c>
       <c r="M15">
-        <v>1.03273723598084</v>
+        <v>1.054267305337483</v>
       </c>
       <c r="N15">
-        <v>1.009284447852057</v>
+        <v>1.015813611808298</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9893729602287968</v>
+        <v>1.029491525669184</v>
       </c>
       <c r="D16">
-        <v>1.015375847705462</v>
+        <v>1.039787809601182</v>
       </c>
       <c r="E16">
-        <v>1.008777161311615</v>
+        <v>1.039657150258927</v>
       </c>
       <c r="F16">
-        <v>1.02051657747642</v>
+        <v>1.051251977617608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043404939642446</v>
+        <v>1.035677216548218</v>
       </c>
       <c r="J16">
-        <v>1.017936491346928</v>
+        <v>1.035853270782017</v>
       </c>
       <c r="K16">
-        <v>1.029437047974449</v>
+        <v>1.043211876779958</v>
       </c>
       <c r="L16">
-        <v>1.022953511739909</v>
+        <v>1.043081679433988</v>
       </c>
       <c r="M16">
-        <v>1.034489402719688</v>
+        <v>1.054636001029191</v>
       </c>
       <c r="N16">
-        <v>1.009785636421388</v>
+        <v>1.015916704570851</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9910481690198587</v>
+        <v>1.029822576310302</v>
       </c>
       <c r="D17">
-        <v>1.016609294887004</v>
+        <v>1.040041839657165</v>
       </c>
       <c r="E17">
-        <v>1.010116690087612</v>
+        <v>1.039943577166721</v>
       </c>
       <c r="F17">
-        <v>1.021942673461675</v>
+        <v>1.051554863555001</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043790795984422</v>
+        <v>1.03572968475908</v>
       </c>
       <c r="J17">
-        <v>1.018854753193909</v>
+        <v>1.036045954896317</v>
       </c>
       <c r="K17">
-        <v>1.030332238180943</v>
+        <v>1.043393654337817</v>
       </c>
       <c r="L17">
-        <v>1.023949632155868</v>
+        <v>1.043295731406119</v>
       </c>
       <c r="M17">
-        <v>1.035576603985537</v>
+        <v>1.054867376304377</v>
       </c>
       <c r="N17">
-        <v>1.01009642354595</v>
+        <v>1.0159813744924</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9920186921058136</v>
+        <v>1.0300157693681</v>
       </c>
       <c r="D18">
-        <v>1.017324330082567</v>
+        <v>1.040190076174885</v>
       </c>
       <c r="E18">
-        <v>1.010893561308604</v>
+        <v>1.040110770987376</v>
       </c>
       <c r="F18">
-        <v>1.022769606770425</v>
+        <v>1.051731647146688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044013289773327</v>
+        <v>1.035760159604269</v>
       </c>
       <c r="J18">
-        <v>1.01938665194457</v>
+        <v>1.036158363052161</v>
       </c>
       <c r="K18">
-        <v>1.030850576587524</v>
+        <v>1.043499664914821</v>
       </c>
       <c r="L18">
-        <v>1.024526870200587</v>
+        <v>1.043420630065675</v>
       </c>
       <c r="M18">
-        <v>1.036206550326839</v>
+        <v>1.055002369862939</v>
       </c>
       <c r="N18">
-        <v>1.010276429679334</v>
+        <v>1.016019096121428</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9923485110358525</v>
+        <v>1.030081659578209</v>
       </c>
       <c r="D19">
-        <v>1.017567398317673</v>
+        <v>1.040240631976126</v>
       </c>
       <c r="E19">
-        <v>1.011157708175997</v>
+        <v>1.04016780104552</v>
       </c>
       <c r="F19">
-        <v>1.023050751040556</v>
+        <v>1.051791945283244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044088721693396</v>
+        <v>1.035770528840932</v>
       </c>
       <c r="J19">
-        <v>1.019567393781696</v>
+        <v>1.036196694470767</v>
       </c>
       <c r="K19">
-        <v>1.031026676782147</v>
+        <v>1.043535808820242</v>
       </c>
       <c r="L19">
-        <v>1.024723059176571</v>
+        <v>1.043463224996491</v>
       </c>
       <c r="M19">
-        <v>1.036420641165785</v>
+        <v>1.055048405277799</v>
       </c>
       <c r="N19">
-        <v>1.010337593883492</v>
+        <v>1.016031958335242</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.990869120949331</v>
+        <v>1.029787047682591</v>
       </c>
       <c r="D20">
-        <v>1.016477416203158</v>
+        <v>1.040014577890149</v>
       </c>
       <c r="E20">
-        <v>1.009973434151173</v>
+        <v>1.039912833238484</v>
       </c>
       <c r="F20">
-        <v>1.021790174428498</v>
+        <v>1.051522354813957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043749663800159</v>
+        <v>1.035724068751904</v>
       </c>
       <c r="J20">
-        <v>1.018756617589857</v>
+        <v>1.036025279762841</v>
       </c>
       <c r="K20">
-        <v>1.030236588499537</v>
+        <v>1.043374153094322</v>
       </c>
       <c r="L20">
-        <v>1.023843150799312</v>
+        <v>1.043272760910357</v>
       </c>
       <c r="M20">
-        <v>1.035460393839692</v>
+        <v>1.054842548162407</v>
       </c>
       <c r="N20">
-        <v>1.010063211018712</v>
+        <v>1.015974435939795</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9859808114898055</v>
+        <v>1.028830377752513</v>
       </c>
       <c r="D21">
-        <v>1.012881269413632</v>
+        <v>1.039280423580727</v>
       </c>
       <c r="E21">
-        <v>1.006070204933259</v>
+        <v>1.039085391892853</v>
       </c>
       <c r="F21">
-        <v>1.017633762190849</v>
+        <v>1.050647250659232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042616911769557</v>
+        <v>1.035571508248101</v>
       </c>
       <c r="J21">
-        <v>1.01607659215033</v>
+        <v>1.0354682176928</v>
       </c>
       <c r="K21">
-        <v>1.027622643692183</v>
+        <v>1.042848395899818</v>
       </c>
       <c r="L21">
-        <v>1.020937480831316</v>
+        <v>1.042654085132325</v>
       </c>
       <c r="M21">
-        <v>1.032288585423258</v>
+        <v>1.054173717047742</v>
       </c>
       <c r="N21">
-        <v>1.009156055207747</v>
+        <v>1.015787435120709</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9828444065505654</v>
+        <v>1.028229765508024</v>
       </c>
       <c r="D22">
-        <v>1.010578496622029</v>
+        <v>1.038819431506633</v>
       </c>
       <c r="E22">
-        <v>1.003573798304208</v>
+        <v>1.038566294168932</v>
       </c>
       <c r="F22">
-        <v>1.01497413329415</v>
+        <v>1.050098091790673</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04188081006197</v>
+        <v>1.035474430390646</v>
       </c>
       <c r="J22">
-        <v>1.014356489743931</v>
+        <v>1.035118149209562</v>
       </c>
       <c r="K22">
-        <v>1.025943264447722</v>
+        <v>1.042517686704831</v>
       </c>
       <c r="L22">
-        <v>1.019074788453711</v>
+        <v>1.04226552206604</v>
       </c>
       <c r="M22">
-        <v>1.030254673872989</v>
+        <v>1.05375353515896</v>
       </c>
       <c r="N22">
-        <v>1.00857369770147</v>
+        <v>1.015669870600676</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9845132145839051</v>
+        <v>1.028548077043156</v>
       </c>
       <c r="D23">
-        <v>1.011803294496778</v>
+        <v>1.039063754609705</v>
       </c>
       <c r="E23">
-        <v>1.00490130826139</v>
+        <v>1.038841368261113</v>
       </c>
       <c r="F23">
-        <v>1.016388560648792</v>
+        <v>1.050389110693685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042273333924998</v>
+        <v>1.035526002632651</v>
       </c>
       <c r="J23">
-        <v>1.015271755516788</v>
+        <v>1.035303709754078</v>
       </c>
       <c r="K23">
-        <v>1.026837014992983</v>
+        <v>1.042693015137742</v>
       </c>
       <c r="L23">
-        <v>1.020065714362389</v>
+        <v>1.042471466092266</v>
       </c>
       <c r="M23">
-        <v>1.031336741022945</v>
+        <v>1.053976248835345</v>
       </c>
       <c r="N23">
-        <v>1.008883580520524</v>
+        <v>1.015732192630106</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9909500454186499</v>
+        <v>1.029803101241194</v>
       </c>
       <c r="D24">
-        <v>1.016537020123332</v>
+        <v>1.040026896108352</v>
       </c>
       <c r="E24">
-        <v>1.010038179082287</v>
+        <v>1.039926724707699</v>
       </c>
       <c r="F24">
-        <v>1.021859097247831</v>
+        <v>1.051537043758581</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043768257597124</v>
+        <v>1.035726606782407</v>
       </c>
       <c r="J24">
-        <v>1.018800972286486</v>
+        <v>1.036034621907879</v>
       </c>
       <c r="K24">
-        <v>1.030279820234276</v>
+        <v>1.043382964920159</v>
       </c>
       <c r="L24">
-        <v>1.02389127681141</v>
+        <v>1.043283140147429</v>
       </c>
       <c r="M24">
-        <v>1.035512917162221</v>
+        <v>1.054853766819187</v>
       </c>
       <c r="N24">
-        <v>1.01007822225155</v>
+        <v>1.015977571170773</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9981623504461163</v>
+        <v>1.031263278797502</v>
       </c>
       <c r="D25">
-        <v>1.021857985472388</v>
+        <v>1.041147114190665</v>
       </c>
       <c r="E25">
-        <v>1.015825510234449</v>
+        <v>1.041191150140472</v>
       </c>
       <c r="F25">
-        <v>1.0280167863025</v>
+        <v>1.052873673373429</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045402559435247</v>
+        <v>1.035954334737452</v>
       </c>
       <c r="J25">
-        <v>1.02275171748994</v>
+        <v>1.036883536203409</v>
       </c>
       <c r="K25">
-        <v>1.034126202275312</v>
+        <v>1.044182933292742</v>
       </c>
       <c r="L25">
-        <v>1.028183024220097</v>
+        <v>1.044226832404816</v>
       </c>
       <c r="M25">
-        <v>1.040195206432266</v>
+        <v>1.055873494295358</v>
       </c>
       <c r="N25">
-        <v>1.011414930525028</v>
+        <v>1.016262347203186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032430907700835</v>
+        <v>1.003724293823386</v>
       </c>
       <c r="D2">
-        <v>1.042042578315674</v>
+        <v>1.025972653899938</v>
       </c>
       <c r="E2">
-        <v>1.04220355530835</v>
+        <v>1.020311960576163</v>
       </c>
       <c r="F2">
-        <v>1.053943330564776</v>
+        <v>1.032785795340382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036131861345853</v>
+        <v>1.046628658681897</v>
       </c>
       <c r="J2">
-        <v>1.03756116767077</v>
+        <v>1.025794179662641</v>
       </c>
       <c r="K2">
-        <v>1.044820383522397</v>
+        <v>1.037081629055565</v>
       </c>
       <c r="L2">
-        <v>1.044980905521385</v>
+        <v>1.031495388421382</v>
       </c>
       <c r="M2">
-        <v>1.056687905001926</v>
+        <v>1.043806513660752</v>
       </c>
       <c r="N2">
-        <v>1.016489487714868</v>
+        <v>1.012443723552563</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033280417173075</v>
+        <v>1.007659956194253</v>
       </c>
       <c r="D3">
-        <v>1.042693878745581</v>
+        <v>1.028889675908707</v>
       </c>
       <c r="E3">
-        <v>1.042940879729541</v>
+        <v>1.023499275436049</v>
       </c>
       <c r="F3">
-        <v>1.054722026554509</v>
+        <v>1.036171170421277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036258365324574</v>
+        <v>1.047475663255168</v>
       </c>
       <c r="J3">
-        <v>1.038053476917823</v>
+        <v>1.027943959081422</v>
       </c>
       <c r="K3">
-        <v>1.045282853160563</v>
+        <v>1.039165784796132</v>
       </c>
       <c r="L3">
-        <v>1.045529206319954</v>
+        <v>1.033840054806412</v>
       </c>
       <c r="M3">
-        <v>1.057279834166451</v>
+        <v>1.046361242958367</v>
       </c>
       <c r="N3">
-        <v>1.016654405083623</v>
+        <v>1.013170258969231</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033830886814595</v>
+        <v>1.010161398457579</v>
       </c>
       <c r="D4">
-        <v>1.043115817585385</v>
+        <v>1.030745880521179</v>
       </c>
       <c r="E4">
-        <v>1.043418997515129</v>
+        <v>1.025530679610726</v>
       </c>
       <c r="F4">
-        <v>1.055226821826519</v>
+        <v>1.038327552403534</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036339108716106</v>
+        <v>1.048004222730495</v>
       </c>
       <c r="J4">
-        <v>1.038372159457525</v>
+        <v>1.02930869847474</v>
       </c>
       <c r="K4">
-        <v>1.04558191930708</v>
+        <v>1.040486868047221</v>
       </c>
       <c r="L4">
-        <v>1.045884343985034</v>
+        <v>1.035330435357068</v>
       </c>
       <c r="M4">
-        <v>1.057663116884903</v>
+        <v>1.047984398838407</v>
       </c>
       <c r="N4">
-        <v>1.016761111502511</v>
+        <v>1.013631280798488</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034062489332263</v>
+        <v>1.011202519203265</v>
       </c>
       <c r="D5">
-        <v>1.043293319393685</v>
+        <v>1.031518926484934</v>
       </c>
       <c r="E5">
-        <v>1.043620240388966</v>
+        <v>1.026377471927212</v>
       </c>
       <c r="F5">
-        <v>1.055439257586884</v>
+        <v>1.039226138945821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036372786033922</v>
+        <v>1.048221829268241</v>
       </c>
       <c r="J5">
-        <v>1.038506162304154</v>
+        <v>1.029876295677398</v>
       </c>
       <c r="K5">
-        <v>1.045707601543121</v>
+        <v>1.041035816694264</v>
       </c>
       <c r="L5">
-        <v>1.046033726229317</v>
+        <v>1.035950746647741</v>
       </c>
       <c r="M5">
-        <v>1.057824310672104</v>
+        <v>1.048659787285721</v>
       </c>
       <c r="N5">
-        <v>1.016805968911253</v>
+        <v>1.013822969250348</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034101387217841</v>
+        <v>1.011376722530821</v>
       </c>
       <c r="D6">
-        <v>1.043323129634356</v>
+        <v>1.031648301517419</v>
       </c>
       <c r="E6">
-        <v>1.043654044096944</v>
+        <v>1.026519235291669</v>
       </c>
       <c r="F6">
-        <v>1.05547493931633</v>
+        <v>1.039376555440651</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036378424914016</v>
+        <v>1.048258098621084</v>
       </c>
       <c r="J6">
-        <v>1.03852866361597</v>
+        <v>1.029971242261676</v>
       </c>
       <c r="K6">
-        <v>1.045728701452532</v>
+        <v>1.041127614496172</v>
       </c>
       <c r="L6">
-        <v>1.046058812951651</v>
+        <v>1.036054538135581</v>
       </c>
       <c r="M6">
-        <v>1.057851379388787</v>
+        <v>1.048772783334701</v>
       </c>
       <c r="N6">
-        <v>1.016813500537559</v>
+        <v>1.013855031445837</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033833980773661</v>
+        <v>1.010175350732122</v>
       </c>
       <c r="D7">
-        <v>1.043118188909161</v>
+        <v>1.030756238443512</v>
       </c>
       <c r="E7">
-        <v>1.043421685583181</v>
+        <v>1.025542022546041</v>
       </c>
       <c r="F7">
-        <v>1.055229659542381</v>
+        <v>1.038339590329375</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036339559764897</v>
+        <v>1.048007148382098</v>
       </c>
       <c r="J7">
-        <v>1.038373949899013</v>
+        <v>1.029316306651796</v>
       </c>
       <c r="K7">
-        <v>1.045583598858586</v>
+        <v>1.040494228215158</v>
       </c>
       <c r="L7">
-        <v>1.045886339716138</v>
+        <v>1.035338748309358</v>
       </c>
       <c r="M7">
-        <v>1.057665270523751</v>
+        <v>1.04799345063212</v>
       </c>
       <c r="N7">
-        <v>1.016761710897769</v>
+        <v>1.013633850431351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032717840832299</v>
+        <v>1.00506393283851</v>
       </c>
       <c r="D8">
-        <v>1.042262582855372</v>
+        <v>1.026965074670116</v>
       </c>
       <c r="E8">
-        <v>1.042452525275738</v>
+        <v>1.021395677906946</v>
       </c>
       <c r="F8">
-        <v>1.054206301354345</v>
+        <v>1.033937115762998</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036174844010602</v>
+        <v>1.046918990896571</v>
       </c>
       <c r="J8">
-        <v>1.037727519082762</v>
+        <v>1.026526254049899</v>
       </c>
       <c r="K8">
-        <v>1.044976714246408</v>
+        <v>1.03779176661654</v>
       </c>
       <c r="L8">
-        <v>1.045166132884579</v>
+        <v>1.032293425174318</v>
       </c>
       <c r="M8">
-        <v>1.056887894348424</v>
+        <v>1.044676201875791</v>
       </c>
       <c r="N8">
-        <v>1.016545223284965</v>
+        <v>1.012691174997343</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030757110537028</v>
+        <v>0.9956950910598117</v>
       </c>
       <c r="D9">
-        <v>1.040758839754112</v>
+        <v>1.020035808661775</v>
       </c>
       <c r="E9">
-        <v>1.040752635234142</v>
+        <v>1.01384191038762</v>
       </c>
       <c r="F9">
-        <v>1.052410204058751</v>
+        <v>1.025906955220423</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035876100150645</v>
+        <v>1.044848763790791</v>
       </c>
       <c r="J9">
-        <v>1.036589446423502</v>
+        <v>1.021400788010156</v>
       </c>
       <c r="K9">
-        <v>1.04390597133438</v>
+        <v>1.032811972403593</v>
       </c>
       <c r="L9">
-        <v>1.043899786852262</v>
+        <v>1.026714334342972</v>
       </c>
       <c r="M9">
-        <v>1.055520162777362</v>
+        <v>1.038593242530296</v>
       </c>
       <c r="N9">
-        <v>1.016163719400605</v>
+        <v>1.010957940541645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029454126901467</v>
+        <v>0.9891827413648816</v>
       </c>
       <c r="D10">
-        <v>1.039759110612371</v>
+        <v>1.015235852648847</v>
       </c>
       <c r="E10">
-        <v>1.039624798336864</v>
+        <v>1.008625171995957</v>
       </c>
       <c r="F10">
-        <v>1.051217764249046</v>
+        <v>1.020354746402441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035671269701001</v>
+        <v>1.043360984028317</v>
       </c>
       <c r="J10">
-        <v>1.035831498194754</v>
+        <v>1.017832211790725</v>
       </c>
       <c r="K10">
-        <v>1.043191331874102</v>
+        <v>1.029335362131534</v>
       </c>
       <c r="L10">
-        <v>1.043057495729703</v>
+        <v>1.022840423200688</v>
       </c>
       <c r="M10">
-        <v>1.054609858345312</v>
+        <v>1.034365964249991</v>
       </c>
       <c r="N10">
-        <v>1.015909396361743</v>
+        <v>1.009750340763812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028890931052661</v>
+        <v>0.9862941023071607</v>
       </c>
       <c r="D11">
-        <v>1.039326897208558</v>
+        <v>1.013111489051874</v>
       </c>
       <c r="E11">
-        <v>1.039137743254492</v>
+        <v>1.006319907522386</v>
       </c>
       <c r="F11">
-        <v>1.050702626927263</v>
+        <v>1.017899737044481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035581240536832</v>
+        <v>1.042690054395802</v>
       </c>
       <c r="J11">
-        <v>1.035503497119342</v>
+        <v>1.016248391402818</v>
       </c>
       <c r="K11">
-        <v>1.042881711061414</v>
+        <v>1.027790306570459</v>
       </c>
       <c r="L11">
-        <v>1.042693253517065</v>
+        <v>1.021123615754722</v>
       </c>
       <c r="M11">
-        <v>1.054216067692173</v>
+        <v>1.032491805092584</v>
       </c>
       <c r="N11">
-        <v>1.015799281014891</v>
+        <v>1.009214214663674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028681887700136</v>
+        <v>0.9852103029022435</v>
       </c>
       <c r="D12">
-        <v>1.039166457421295</v>
+        <v>1.012315218985503</v>
       </c>
       <c r="E12">
-        <v>1.038957027473344</v>
+        <v>1.005456348906808</v>
       </c>
       <c r="F12">
-        <v>1.05051146395435</v>
+        <v>1.016979860938349</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03554759965709</v>
+        <v>1.042436721103377</v>
       </c>
       <c r="J12">
-        <v>1.035381693659086</v>
+        <v>1.015654051679066</v>
       </c>
       <c r="K12">
-        <v>1.042766678955975</v>
+        <v>1.027210221941994</v>
       </c>
       <c r="L12">
-        <v>1.042558030712045</v>
+        <v>1.020479755191586</v>
       </c>
       <c r="M12">
-        <v>1.054069854715967</v>
+        <v>1.031788826856765</v>
       </c>
       <c r="N12">
-        <v>1.015758381012072</v>
+        <v>1.00901300802143</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028726721272896</v>
+        <v>0.9854432800255088</v>
       </c>
       <c r="D13">
-        <v>1.039200867584454</v>
+        <v>1.012486351557202</v>
       </c>
       <c r="E13">
-        <v>1.038995782622648</v>
+        <v>1.00564191983527</v>
       </c>
       <c r="F13">
-        <v>1.050552460792464</v>
+        <v>1.01717754400018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035554824780739</v>
+        <v>1.042491250188439</v>
       </c>
       <c r="J13">
-        <v>1.035407819501581</v>
+        <v>1.015781816795516</v>
       </c>
       <c r="K13">
-        <v>1.042791354847498</v>
+        <v>1.027334935552771</v>
       </c>
       <c r="L13">
-        <v>1.042587033135847</v>
+        <v>1.020618148401579</v>
       </c>
       <c r="M13">
-        <v>1.054101215224783</v>
+        <v>1.031939931636784</v>
       </c>
       <c r="N13">
-        <v>1.015767154114649</v>
+        <v>1.009056262305526</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028873648339695</v>
+        <v>0.9862047390483216</v>
       </c>
       <c r="D14">
-        <v>1.039313633082649</v>
+        <v>1.013045817421442</v>
       </c>
       <c r="E14">
-        <v>1.039122801177689</v>
+        <v>1.006248675889108</v>
       </c>
       <c r="F14">
-        <v>1.050686821611942</v>
+        <v>1.017823864509992</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035578463847835</v>
+        <v>1.042669198477763</v>
       </c>
       <c r="J14">
-        <v>1.035493428172241</v>
+        <v>1.016199387703143</v>
       </c>
       <c r="K14">
-        <v>1.042872202976219</v>
+        <v>1.027742484046859</v>
       </c>
       <c r="L14">
-        <v>1.042682074460298</v>
+        <v>1.021070521208405</v>
       </c>
       <c r="M14">
-        <v>1.054203980480429</v>
+        <v>1.032433837640849</v>
       </c>
       <c r="N14">
-        <v>1.015795900169476</v>
+        <v>1.009197625464556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028964195235545</v>
+        <v>0.9866724484710732</v>
       </c>
       <c r="D15">
-        <v>1.039383125403378</v>
+        <v>1.013389561746337</v>
       </c>
       <c r="E15">
-        <v>1.039201087819551</v>
+        <v>1.00662154391936</v>
       </c>
       <c r="F15">
-        <v>1.050769629923122</v>
+        <v>1.018221016662896</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035593002171431</v>
+        <v>1.042778289023861</v>
       </c>
       <c r="J15">
-        <v>1.03554617861446</v>
+        <v>1.016455859420125</v>
       </c>
       <c r="K15">
-        <v>1.042922012888143</v>
+        <v>1.027992762020735</v>
       </c>
       <c r="L15">
-        <v>1.042740642272621</v>
+        <v>1.021348418941256</v>
       </c>
       <c r="M15">
-        <v>1.054267305337483</v>
+        <v>1.032737235980839</v>
       </c>
       <c r="N15">
-        <v>1.015813611808298</v>
+        <v>1.009284447852057</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029491525669184</v>
+        <v>0.9893729602287965</v>
       </c>
       <c r="D16">
-        <v>1.039787809601182</v>
+        <v>1.015375847705462</v>
       </c>
       <c r="E16">
-        <v>1.039657150258927</v>
+        <v>1.008777161311615</v>
       </c>
       <c r="F16">
-        <v>1.051251977617608</v>
+        <v>1.02051657747642</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035677216548218</v>
+        <v>1.043404939642446</v>
       </c>
       <c r="J16">
-        <v>1.035853270782017</v>
+        <v>1.017936491346928</v>
       </c>
       <c r="K16">
-        <v>1.043211876779958</v>
+        <v>1.029437047974449</v>
       </c>
       <c r="L16">
-        <v>1.043081679433988</v>
+        <v>1.022953511739909</v>
       </c>
       <c r="M16">
-        <v>1.054636001029191</v>
+        <v>1.034489402719688</v>
       </c>
       <c r="N16">
-        <v>1.015916704570851</v>
+        <v>1.009785636421388</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029822576310302</v>
+        <v>0.9910481690198586</v>
       </c>
       <c r="D17">
-        <v>1.040041839657165</v>
+        <v>1.016609294887004</v>
       </c>
       <c r="E17">
-        <v>1.039943577166721</v>
+        <v>1.010116690087612</v>
       </c>
       <c r="F17">
-        <v>1.051554863555001</v>
+        <v>1.021942673461675</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03572968475908</v>
+        <v>1.043790795984422</v>
       </c>
       <c r="J17">
-        <v>1.036045954896317</v>
+        <v>1.018854753193909</v>
       </c>
       <c r="K17">
-        <v>1.043393654337817</v>
+        <v>1.030332238180943</v>
       </c>
       <c r="L17">
-        <v>1.043295731406119</v>
+        <v>1.023949632155867</v>
       </c>
       <c r="M17">
-        <v>1.054867376304377</v>
+        <v>1.035576603985537</v>
       </c>
       <c r="N17">
-        <v>1.0159813744924</v>
+        <v>1.01009642354595</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0300157693681</v>
+        <v>0.9920186921058139</v>
       </c>
       <c r="D18">
-        <v>1.040190076174885</v>
+        <v>1.017324330082567</v>
       </c>
       <c r="E18">
-        <v>1.040110770987376</v>
+        <v>1.010893561308604</v>
       </c>
       <c r="F18">
-        <v>1.051731647146688</v>
+        <v>1.022769606770425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035760159604269</v>
+        <v>1.044013289773327</v>
       </c>
       <c r="J18">
-        <v>1.036158363052161</v>
+        <v>1.01938665194457</v>
       </c>
       <c r="K18">
-        <v>1.043499664914821</v>
+        <v>1.030850576587525</v>
       </c>
       <c r="L18">
-        <v>1.043420630065675</v>
+        <v>1.024526870200588</v>
       </c>
       <c r="M18">
-        <v>1.055002369862939</v>
+        <v>1.036206550326839</v>
       </c>
       <c r="N18">
-        <v>1.016019096121428</v>
+        <v>1.010276429679334</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030081659578209</v>
+        <v>0.9923485110358519</v>
       </c>
       <c r="D19">
-        <v>1.040240631976126</v>
+        <v>1.017567398317673</v>
       </c>
       <c r="E19">
-        <v>1.04016780104552</v>
+        <v>1.011157708175996</v>
       </c>
       <c r="F19">
-        <v>1.051791945283244</v>
+        <v>1.023050751040556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035770528840932</v>
+        <v>1.044088721693396</v>
       </c>
       <c r="J19">
-        <v>1.036196694470767</v>
+        <v>1.019567393781696</v>
       </c>
       <c r="K19">
-        <v>1.043535808820242</v>
+        <v>1.031026676782147</v>
       </c>
       <c r="L19">
-        <v>1.043463224996491</v>
+        <v>1.024723059176571</v>
       </c>
       <c r="M19">
-        <v>1.055048405277799</v>
+        <v>1.036420641165784</v>
       </c>
       <c r="N19">
-        <v>1.016031958335242</v>
+        <v>1.010337593883492</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029787047682591</v>
+        <v>0.9908691209493308</v>
       </c>
       <c r="D20">
-        <v>1.040014577890149</v>
+        <v>1.016477416203157</v>
       </c>
       <c r="E20">
-        <v>1.039912833238484</v>
+        <v>1.009973434151173</v>
       </c>
       <c r="F20">
-        <v>1.051522354813957</v>
+        <v>1.021790174428498</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035724068751904</v>
+        <v>1.043749663800159</v>
       </c>
       <c r="J20">
-        <v>1.036025279762841</v>
+        <v>1.018756617589857</v>
       </c>
       <c r="K20">
-        <v>1.043374153094322</v>
+        <v>1.030236588499537</v>
       </c>
       <c r="L20">
-        <v>1.043272760910357</v>
+        <v>1.023843150799312</v>
       </c>
       <c r="M20">
-        <v>1.054842548162407</v>
+        <v>1.035460393839692</v>
       </c>
       <c r="N20">
-        <v>1.015974435939795</v>
+        <v>1.010063211018712</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028830377752513</v>
+        <v>0.9859808114898048</v>
       </c>
       <c r="D21">
-        <v>1.039280423580727</v>
+        <v>1.012881269413631</v>
       </c>
       <c r="E21">
-        <v>1.039085391892853</v>
+        <v>1.006070204933258</v>
       </c>
       <c r="F21">
-        <v>1.050647250659232</v>
+        <v>1.017633762190848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035571508248101</v>
+        <v>1.042616911769556</v>
       </c>
       <c r="J21">
-        <v>1.0354682176928</v>
+        <v>1.01607659215033</v>
       </c>
       <c r="K21">
-        <v>1.042848395899818</v>
+        <v>1.027622643692182</v>
       </c>
       <c r="L21">
-        <v>1.042654085132325</v>
+        <v>1.020937480831315</v>
       </c>
       <c r="M21">
-        <v>1.054173717047742</v>
+        <v>1.032288585423256</v>
       </c>
       <c r="N21">
-        <v>1.015787435120709</v>
+        <v>1.009156055207746</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028229765508024</v>
+        <v>0.9828444065505648</v>
       </c>
       <c r="D22">
-        <v>1.038819431506633</v>
+        <v>1.010578496622028</v>
       </c>
       <c r="E22">
-        <v>1.038566294168932</v>
+        <v>1.003573798304207</v>
       </c>
       <c r="F22">
-        <v>1.050098091790673</v>
+        <v>1.014974133294149</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035474430390646</v>
+        <v>1.04188081006197</v>
       </c>
       <c r="J22">
-        <v>1.035118149209562</v>
+        <v>1.01435648974393</v>
       </c>
       <c r="K22">
-        <v>1.042517686704831</v>
+        <v>1.025943264447721</v>
       </c>
       <c r="L22">
-        <v>1.04226552206604</v>
+        <v>1.019074788453711</v>
       </c>
       <c r="M22">
-        <v>1.05375353515896</v>
+        <v>1.030254673872988</v>
       </c>
       <c r="N22">
-        <v>1.015669870600676</v>
+        <v>1.00857369770147</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028548077043156</v>
+        <v>0.9845132145839056</v>
       </c>
       <c r="D23">
-        <v>1.039063754609705</v>
+        <v>1.011803294496779</v>
       </c>
       <c r="E23">
-        <v>1.038841368261113</v>
+        <v>1.004901308261391</v>
       </c>
       <c r="F23">
-        <v>1.050389110693685</v>
+        <v>1.016388560648792</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035526002632651</v>
+        <v>1.042273333924998</v>
       </c>
       <c r="J23">
-        <v>1.035303709754078</v>
+        <v>1.015271755516788</v>
       </c>
       <c r="K23">
-        <v>1.042693015137742</v>
+        <v>1.026837014992983</v>
       </c>
       <c r="L23">
-        <v>1.042471466092266</v>
+        <v>1.020065714362389</v>
       </c>
       <c r="M23">
-        <v>1.053976248835345</v>
+        <v>1.031336741022945</v>
       </c>
       <c r="N23">
-        <v>1.015732192630106</v>
+        <v>1.008883580520524</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029803101241194</v>
+        <v>0.9909500454186509</v>
       </c>
       <c r="D24">
-        <v>1.040026896108352</v>
+        <v>1.016537020123333</v>
       </c>
       <c r="E24">
-        <v>1.039926724707699</v>
+        <v>1.010038179082288</v>
       </c>
       <c r="F24">
-        <v>1.051537043758581</v>
+        <v>1.021859097247833</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035726606782407</v>
+        <v>1.043768257597125</v>
       </c>
       <c r="J24">
-        <v>1.036034621907879</v>
+        <v>1.018800972286487</v>
       </c>
       <c r="K24">
-        <v>1.043382964920159</v>
+        <v>1.030279820234278</v>
       </c>
       <c r="L24">
-        <v>1.043283140147429</v>
+        <v>1.023891276811411</v>
       </c>
       <c r="M24">
-        <v>1.054853766819187</v>
+        <v>1.035512917162222</v>
       </c>
       <c r="N24">
-        <v>1.015977571170773</v>
+        <v>1.010078222251551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031263278797502</v>
+        <v>0.9981623504461167</v>
       </c>
       <c r="D25">
-        <v>1.041147114190665</v>
+        <v>1.021857985472389</v>
       </c>
       <c r="E25">
-        <v>1.041191150140472</v>
+        <v>1.015825510234449</v>
       </c>
       <c r="F25">
-        <v>1.052873673373429</v>
+        <v>1.0280167863025</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035954334737452</v>
+        <v>1.045402559435248</v>
       </c>
       <c r="J25">
-        <v>1.036883536203409</v>
+        <v>1.022751717489941</v>
       </c>
       <c r="K25">
-        <v>1.044182933292742</v>
+        <v>1.034126202275313</v>
       </c>
       <c r="L25">
-        <v>1.044226832404816</v>
+        <v>1.028183024220097</v>
       </c>
       <c r="M25">
-        <v>1.055873494295358</v>
+        <v>1.040195206432267</v>
       </c>
       <c r="N25">
-        <v>1.016262347203186</v>
+        <v>1.011414930525028</v>
       </c>
     </row>
   </sheetData>
